--- a/Udemy/Statistic/DescriptiveStatistic/PracticalExample/PE.xlsx
+++ b/Udemy/Statistic/DescriptiveStatistic/PracticalExample/PE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\moje\ExelDataAnalytics\Udemy\Statistic\DescriptiveStatistic\PracticalExample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43946832-B5CD-4067-9B0C-080331563BAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8C3EC7-6525-4666-B902-AA8E5314A10C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="365RE" sheetId="1" r:id="rId1"/>
@@ -7665,8 +7665,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3515995" y="485775"/>
-              <a:ext cx="4648200" cy="3079115"/>
+              <a:off x="3512820" y="488950"/>
+              <a:ext cx="4673600" cy="3126740"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8077,8 +8077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA920"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AD1" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
@@ -45638,7 +45638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -45785,7 +45785,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -47000,7 +47002,7 @@
   <dimension ref="B1:H200"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -47762,7 +47764,7 @@
   <dimension ref="B1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
